--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xanax\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xanax\PycharmProjects\AlgorithmsCW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4981D736-CE81-4AB8-8CDC-8547BF98FD07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97421B69-ABE8-46EF-8E0C-ED0CCF117567}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="293">
   <si>
     <t>Line</t>
   </si>
   <si>
-    <t xml:space="preserve">From Station : </t>
-  </si>
-  <si>
     <t>To Station</t>
   </si>
   <si>
@@ -49,9 +46,6 @@
     <t>North Wembley</t>
   </si>
   <si>
-    <t xml:space="preserve">Wembley Central </t>
-  </si>
-  <si>
     <t>Wembley Central</t>
   </si>
   <si>
@@ -902,12 +896,15 @@
   </si>
   <si>
     <t>Waterloo &amp; City</t>
+  </si>
+  <si>
+    <t>From Station</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1537,11 +1534,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D378"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I51" sqref="I51"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1549,7 +1546,7 @@
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" customWidth="1"/>
     <col min="5" max="7" width="9.140625" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
     <col min="9" max="9" width="9.140625" customWidth="1"/>
@@ -1560,24 +1557,24 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="D2" s="1">
         <v>2</v>
@@ -1585,13 +1582,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -1599,13 +1596,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="D4" s="1">
         <v>2</v>
@@ -1613,13 +1610,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="D5" s="1">
         <v>2</v>
@@ -1627,13 +1624,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D6" s="1">
         <v>2</v>
@@ -1641,13 +1638,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D7" s="1">
         <v>2</v>
@@ -1655,13 +1652,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D8" s="1">
         <v>2</v>
@@ -1669,13 +1666,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D9" s="1">
         <v>2</v>
@@ -1683,13 +1680,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D10" s="1">
         <v>2</v>
@@ -1697,13 +1694,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D11" s="1">
         <v>2</v>
@@ -1711,13 +1708,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D12" s="1">
         <v>2</v>
@@ -1725,13 +1722,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D13" s="1">
         <v>2</v>
@@ -1739,13 +1736,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D14" s="1">
         <v>2</v>
@@ -1753,13 +1750,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D15" s="1">
         <v>2</v>
@@ -1767,13 +1764,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D16" s="1">
         <v>2</v>
@@ -1781,13 +1778,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D17" s="1">
         <v>2</v>
@@ -1795,13 +1792,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D18" s="1">
         <v>2</v>
@@ -1809,13 +1806,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D19" s="1">
         <v>2</v>
@@ -1823,13 +1820,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D20" s="1">
         <v>2</v>
@@ -1837,13 +1834,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D21" s="1">
         <v>2</v>
@@ -1851,13 +1848,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D22" s="1">
         <v>2</v>
@@ -1865,13 +1862,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D23" s="1">
         <v>2</v>
@@ -1879,13 +1876,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D24" s="1">
         <v>2</v>
@@ -1893,13 +1890,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D25" s="1">
         <v>2</v>
@@ -1907,13 +1904,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="D26" s="1">
         <v>3</v>
@@ -1921,13 +1918,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="C27" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D27" s="1">
         <v>3</v>
@@ -1935,13 +1932,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D28" s="1">
         <v>2</v>
@@ -1949,13 +1946,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D29" s="1">
         <v>3</v>
@@ -1963,13 +1960,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D30" s="1">
         <v>2</v>
@@ -1977,13 +1974,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D31" s="1">
         <v>3</v>
@@ -1991,13 +1988,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D32" s="1">
         <v>2</v>
@@ -2005,13 +2002,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D33" s="1">
         <v>2</v>
@@ -2019,13 +2016,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D34" s="1">
         <v>4</v>
@@ -2033,13 +2030,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D35" s="1">
         <v>3</v>
@@ -2047,13 +2044,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D36" s="1">
         <v>2</v>
@@ -2061,13 +2058,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D37" s="1">
         <v>5</v>
@@ -2075,13 +2072,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D38" s="1">
         <v>2</v>
@@ -2089,13 +2086,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D39" s="1">
         <v>2</v>
@@ -2103,13 +2100,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D40" s="1">
         <v>2</v>
@@ -2117,13 +2114,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D41" s="1">
         <v>3</v>
@@ -2131,13 +2128,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D42" s="1">
         <v>2</v>
@@ -2145,13 +2142,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D43" s="1">
         <v>2</v>
@@ -2159,13 +2156,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D44" s="1">
         <v>2</v>
@@ -2173,13 +2170,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D45" s="1">
         <v>2</v>
@@ -2187,13 +2184,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D46" s="1">
         <v>3</v>
@@ -2201,13 +2198,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D47" s="1">
         <v>4</v>
@@ -2215,13 +2212,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D48" s="1">
         <v>2</v>
@@ -2229,13 +2226,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D49" s="1">
         <v>3</v>
@@ -2243,13 +2240,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D50" s="1">
         <v>2</v>
@@ -2257,13 +2254,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D51" s="1">
         <v>2</v>
@@ -2271,13 +2268,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D52" s="1">
         <v>2</v>
@@ -2285,13 +2282,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D53" s="1">
         <v>1</v>
@@ -2299,13 +2296,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D54" s="1">
         <v>2</v>
@@ -2313,13 +2310,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D55" s="1">
         <v>1</v>
@@ -2327,13 +2324,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D56" s="1">
         <v>2</v>
@@ -2341,13 +2338,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D57" s="1">
         <v>2</v>
@@ -2355,13 +2352,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D58" s="1">
         <v>3</v>
@@ -2369,13 +2366,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D59" s="1">
         <v>2</v>
@@ -2383,13 +2380,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D60" s="1">
         <v>2</v>
@@ -2397,13 +2394,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D61" s="1">
         <v>1</v>
@@ -2411,13 +2408,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D62" s="1">
         <v>2</v>
@@ -2425,13 +2422,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D63" s="1">
         <v>3</v>
@@ -2439,13 +2436,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D64" s="1">
         <v>3</v>
@@ -2453,13 +2450,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D65" s="1">
         <v>2</v>
@@ -2467,13 +2464,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D66" s="1">
         <v>3</v>
@@ -2481,13 +2478,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="D67" s="1">
         <v>2</v>
@@ -2495,13 +2492,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D68" s="1">
         <v>3</v>
@@ -2509,13 +2506,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D69" s="1">
         <v>3</v>
@@ -2523,13 +2520,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D70" s="1">
         <v>2</v>
@@ -2537,13 +2534,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D71" s="1">
         <v>2</v>
@@ -2551,13 +2548,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D72" s="1">
         <v>3</v>
@@ -2565,13 +2562,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D73" s="1">
         <v>2</v>
@@ -2579,13 +2576,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D74" s="1">
         <v>2</v>
@@ -2593,13 +2590,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D75" s="1">
         <v>3</v>
@@ -2607,13 +2604,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="D76" s="1">
         <v>2</v>
@@ -2621,13 +2618,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="C77" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D77" s="1">
         <v>2</v>
@@ -2635,13 +2632,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D78" s="1">
         <v>2</v>
@@ -2649,13 +2646,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D79" s="1">
         <v>3</v>
@@ -2663,13 +2660,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D80" s="1">
         <v>3</v>
@@ -2677,13 +2674,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D81" s="1">
         <v>2</v>
@@ -2691,13 +2688,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D82" s="1">
         <v>2</v>
@@ -2705,13 +2702,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D83" s="1">
         <v>2</v>
@@ -2719,13 +2716,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D84" s="1">
         <v>2</v>
@@ -2733,13 +2730,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D85" s="1">
         <v>1</v>
@@ -2747,13 +2744,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D86" s="1">
         <v>2</v>
@@ -2761,13 +2758,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D87" s="1">
         <v>1</v>
@@ -2775,13 +2772,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D88" s="1">
         <v>2</v>
@@ -2789,13 +2786,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D89" s="1">
         <v>2</v>
@@ -2803,13 +2800,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D90" s="1">
         <v>1</v>
@@ -2817,13 +2814,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D91" s="1">
         <v>2</v>
@@ -2831,13 +2828,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D92" s="1">
         <v>2</v>
@@ -2845,13 +2842,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D93" s="1">
         <v>3</v>
@@ -2859,13 +2856,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D94" s="1">
         <v>2</v>
@@ -2873,13 +2870,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D95" s="1">
         <v>2</v>
@@ -2887,13 +2884,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D96" s="1">
         <v>1</v>
@@ -2901,13 +2898,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D97" s="1">
         <v>4</v>
@@ -2915,13 +2912,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D98" s="1">
         <v>2</v>
@@ -2929,13 +2926,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D99" s="1">
         <v>2</v>
@@ -2943,13 +2940,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D100" s="1">
         <v>2</v>
@@ -2957,13 +2954,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D101" s="1">
         <v>3</v>
@@ -2971,13 +2968,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D102" s="1">
         <v>2</v>
@@ -2985,13 +2982,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D103" s="1">
         <v>2</v>
@@ -2999,13 +2996,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D104" s="1">
         <v>2</v>
@@ -3013,13 +3010,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D105" s="1">
         <v>2</v>
@@ -3027,13 +3024,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D106" s="1">
         <v>2</v>
@@ -3041,13 +3038,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D107" s="1">
         <v>2</v>
@@ -3055,13 +3052,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D108" s="1">
         <v>1</v>
@@ -3069,13 +3066,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D109" s="1">
         <v>2</v>
@@ -3083,13 +3080,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="D110" s="1">
         <v>2</v>
@@ -3097,13 +3094,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B111" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="C111" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D111" s="1">
         <v>2</v>
@@ -3111,13 +3108,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D112" s="1">
         <v>2</v>
@@ -3125,13 +3122,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D113" s="1">
         <v>3</v>
@@ -3139,13 +3136,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D114" s="1">
         <v>2</v>
@@ -3153,13 +3150,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D115" s="1">
         <v>3</v>
@@ -3167,13 +3164,13 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D116" s="1">
         <v>2</v>
@@ -3181,13 +3178,13 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D117" s="1">
         <v>3</v>
@@ -3195,13 +3192,13 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D118" s="1">
         <v>4</v>
@@ -3209,13 +3206,13 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D119" s="1">
         <v>2</v>
@@ -3223,13 +3220,13 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D120" s="1">
         <v>2</v>
@@ -3237,13 +3234,13 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D121" s="1">
         <v>2</v>
@@ -3251,13 +3248,13 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D122" s="1">
         <v>2</v>
@@ -3265,13 +3262,13 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D123" s="1">
         <v>2</v>
@@ -3279,13 +3276,13 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D124" s="1">
         <v>2</v>
@@ -3293,13 +3290,13 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D125" s="1">
         <v>2</v>
@@ -3307,13 +3304,13 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D126" s="1">
         <v>3</v>
@@ -3321,13 +3318,13 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D127" s="1">
         <v>2</v>
@@ -3335,13 +3332,13 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D128" s="1">
         <v>3</v>
@@ -3349,13 +3346,13 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D129" s="1">
         <v>2</v>
@@ -3363,13 +3360,13 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D130" s="1">
         <v>1</v>
@@ -3377,13 +3374,13 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D131" s="1">
         <v>2</v>
@@ -3391,13 +3388,13 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D132" s="1">
         <v>2</v>
@@ -3405,13 +3402,13 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D133" s="1">
         <v>1</v>
@@ -3419,13 +3416,13 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D134" s="1">
         <v>2</v>
@@ -3433,13 +3430,13 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D135" s="1">
         <v>1</v>
@@ -3447,13 +3444,13 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D136" s="1">
         <v>2</v>
@@ -3461,13 +3458,13 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D137" s="1">
         <v>2</v>
@@ -3475,13 +3472,13 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D138" s="1">
         <v>2</v>
@@ -3489,13 +3486,13 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D139" s="1">
         <v>2</v>
@@ -3503,13 +3500,13 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D140" s="1">
         <v>3</v>
@@ -3517,13 +3514,13 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D141" s="1">
         <v>2</v>
@@ -3531,13 +3528,13 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D142" s="1">
         <v>3</v>
@@ -3545,13 +3542,13 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D143" s="1">
         <v>5</v>
@@ -3559,13 +3556,13 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D144" s="1">
         <v>2</v>
@@ -3573,13 +3570,13 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D145" s="1">
         <v>2</v>
@@ -3587,13 +3584,13 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D146" s="1">
         <v>2</v>
@@ -3601,13 +3598,13 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D147" s="1">
         <v>3</v>
@@ -3615,13 +3612,13 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B148" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C148" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="D148" s="1">
         <v>2</v>
@@ -3629,13 +3626,13 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D149" s="1">
         <v>2</v>
@@ -3643,13 +3640,13 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D150" s="1">
         <v>2</v>
@@ -3657,13 +3654,13 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D151" s="1">
         <v>3</v>
@@ -3671,13 +3668,13 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D152" s="1">
         <v>3</v>
@@ -3685,13 +3682,13 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D153" s="1">
         <v>2</v>
@@ -3699,13 +3696,13 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D154" s="1">
         <v>2</v>
@@ -3713,13 +3710,13 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D155" s="1">
         <v>4</v>
@@ -3727,13 +3724,13 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D156" s="1">
         <v>2</v>
@@ -3741,13 +3738,13 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D157" s="1">
         <v>2</v>
@@ -3755,13 +3752,13 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D158" s="1">
         <v>3</v>
@@ -3769,13 +3766,13 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D159" s="1">
         <v>2</v>
@@ -3783,13 +3780,13 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D160" s="1">
         <v>2</v>
@@ -3797,13 +3794,13 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D161" s="1">
         <v>1</v>
@@ -3811,13 +3808,13 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D162" s="1">
         <v>3</v>
@@ -3825,13 +3822,13 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D163" s="1">
         <v>2</v>
@@ -3839,13 +3836,13 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D164" s="1">
         <v>4</v>
@@ -3853,13 +3850,13 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D165" s="1">
         <v>2</v>
@@ -3867,13 +3864,13 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D166" s="1">
         <v>2</v>
@@ -3881,13 +3878,13 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D167" s="1">
         <v>2</v>
@@ -3895,13 +3892,13 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D168" s="1">
         <v>5</v>
@@ -3909,13 +3906,13 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D169" s="1">
         <v>4</v>
@@ -3923,13 +3920,13 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D170" s="1">
         <v>2</v>
@@ -3937,13 +3934,13 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D171" s="1">
         <v>2</v>
@@ -3951,13 +3948,13 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D172" s="1">
         <v>2</v>
@@ -3965,13 +3962,13 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D173" s="1">
         <v>2</v>
@@ -3979,13 +3976,13 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D174" s="1">
         <v>2</v>
@@ -3993,13 +3990,13 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D175" s="1">
         <v>2</v>
@@ -4007,13 +4004,13 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D176" s="1">
         <v>2</v>
@@ -4021,13 +4018,13 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D177" s="1">
         <v>3</v>
@@ -4035,13 +4032,13 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D178" s="1">
         <v>2</v>
@@ -4049,13 +4046,13 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D179" s="1">
         <v>3</v>
@@ -4063,13 +4060,13 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D180" s="1">
         <v>2</v>
@@ -4077,13 +4074,13 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D181" s="1">
         <v>2</v>
@@ -4091,13 +4088,13 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D182" s="1">
         <v>1</v>
@@ -4105,13 +4102,13 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D183" s="1">
         <v>4</v>
@@ -4119,13 +4116,13 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D184" s="1">
         <v>2</v>
@@ -4133,13 +4130,13 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D185" s="1">
         <v>2</v>
@@ -4147,13 +4144,13 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D186" s="1">
         <v>2</v>
@@ -4161,13 +4158,13 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D187" s="1">
         <v>3</v>
@@ -4175,13 +4172,13 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D188" s="1">
         <v>3</v>
@@ -4189,13 +4186,13 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D189" s="1">
         <v>2</v>
@@ -4203,13 +4200,13 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C190" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C190" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="D190" s="1">
         <v>2</v>
@@ -4217,13 +4214,13 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B191" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B191" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="C191" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D191" s="1">
         <v>2</v>
@@ -4231,13 +4228,13 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D192" s="1">
         <v>2</v>
@@ -4245,13 +4242,13 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D193" s="1">
         <v>2</v>
@@ -4259,13 +4256,13 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D194" s="1">
         <v>2</v>
@@ -4273,13 +4270,13 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D195" s="1">
         <v>1</v>
@@ -4287,13 +4284,13 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D196" s="1">
         <v>2</v>
@@ -4301,13 +4298,13 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C197" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="B197" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C197" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="D197" s="1">
         <v>4</v>
@@ -4315,13 +4312,13 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B198" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B198" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="C198" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D198" s="1">
         <v>3</v>
@@ -4329,13 +4326,13 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D199" s="1">
         <v>2</v>
@@ -4343,13 +4340,13 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D200" s="1">
         <v>3</v>
@@ -4357,13 +4354,13 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D201" s="1">
         <v>4</v>
@@ -4371,13 +4368,13 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D202" s="1">
         <v>2</v>
@@ -4385,13 +4382,13 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D203" s="1">
         <v>2</v>
@@ -4399,13 +4396,13 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D204" s="1">
         <v>2</v>
@@ -4413,13 +4410,13 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D205" s="1">
         <v>2</v>
@@ -4427,13 +4424,13 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D206" s="1">
         <v>1</v>
@@ -4441,13 +4438,13 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D207" s="1">
         <v>2</v>
@@ -4455,13 +4452,13 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D208" s="1">
         <v>2</v>
@@ -4469,13 +4466,13 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D209" s="1">
         <v>3</v>
@@ -4483,13 +4480,13 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D210" s="1">
         <v>2</v>
@@ -4497,13 +4494,13 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D211" s="1">
         <v>2</v>
@@ -4511,13 +4508,13 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D212" s="1">
         <v>2</v>
@@ -4525,13 +4522,13 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D213" s="1">
         <v>2</v>
@@ -4539,13 +4536,13 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D214" s="1">
         <v>2</v>
@@ -4553,13 +4550,13 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D215" s="1">
         <v>2</v>
@@ -4567,13 +4564,13 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D216" s="1">
         <v>2</v>
@@ -4581,13 +4578,13 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D217" s="1">
         <v>2</v>
@@ -4595,13 +4592,13 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D218" s="1">
         <v>3</v>
@@ -4609,13 +4606,13 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D219" s="1">
         <v>3</v>
@@ -4623,13 +4620,13 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D220" s="1">
         <v>3</v>
@@ -4637,13 +4634,13 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D221" s="1">
         <v>3</v>
@@ -4651,13 +4648,13 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D222" s="1">
         <v>2</v>
@@ -4665,13 +4662,13 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C223" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="B223" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C223" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="D223" s="1">
         <v>4</v>
@@ -4679,13 +4676,13 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C224" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="B224" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C224" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="D224" s="1">
         <v>9</v>
@@ -4693,13 +4690,13 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B225" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B225" s="1" t="s">
+      <c r="C225" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="C225" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="D225" s="1">
         <v>4</v>
@@ -4707,13 +4704,13 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D226" s="1">
         <v>4</v>
@@ -4721,13 +4718,13 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D227" s="1">
         <v>5</v>
@@ -4735,13 +4732,13 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D228" s="1">
         <v>4</v>
@@ -4749,13 +4746,13 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D229" s="1">
         <v>4</v>
@@ -4763,13 +4760,13 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D230" s="1">
         <v>4</v>
@@ -4777,13 +4774,13 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D231" s="1">
         <v>2</v>
@@ -4791,13 +4788,13 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D232" s="1">
         <v>2</v>
@@ -4805,13 +4802,13 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D233" s="1">
         <v>2</v>
@@ -4819,13 +4816,13 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D234" s="1">
         <v>2</v>
@@ -4833,13 +4830,13 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D235" s="1">
         <v>2</v>
@@ -4847,13 +4844,13 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D236" s="1">
         <v>3</v>
@@ -4861,13 +4858,13 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D237" s="1">
         <v>2</v>
@@ -4875,13 +4872,13 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D238" s="1">
         <v>3</v>
@@ -4889,13 +4886,13 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D239" s="1">
         <v>2</v>
@@ -4903,13 +4900,13 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D240" s="1">
         <v>3</v>
@@ -4917,13 +4914,13 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D241" s="1">
         <v>3</v>
@@ -4931,13 +4928,13 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D242" s="1">
         <v>3</v>
@@ -4945,13 +4942,13 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D243" s="1">
         <v>14</v>
@@ -4959,13 +4956,13 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D244" s="1">
         <v>16</v>
@@ -4973,13 +4970,13 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D245" s="1">
         <v>9</v>
@@ -4987,13 +4984,13 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D246" s="1">
         <v>3</v>
@@ -5001,13 +4998,13 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D247" s="1">
         <v>3</v>
@@ -5015,13 +5012,13 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D248" s="1">
         <v>3</v>
@@ -5029,13 +5026,13 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D249" s="1">
         <v>7</v>
@@ -5043,13 +5040,13 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D250" s="1">
         <v>5</v>
@@ -5057,13 +5054,13 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D251" s="1">
         <v>2</v>
@@ -5071,13 +5068,13 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D252" s="1">
         <v>2</v>
@@ -5085,13 +5082,13 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D253" s="1">
         <v>2</v>
@@ -5099,13 +5096,13 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D254" s="1">
         <v>2</v>
@@ -5113,13 +5110,13 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D255" s="1">
         <v>4</v>
@@ -5127,13 +5124,13 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D256" s="1">
         <v>2</v>
@@ -5141,13 +5138,13 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D257" s="1">
         <v>2</v>
@@ -5155,13 +5152,13 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D258" s="1">
         <v>3</v>
@@ -5169,13 +5166,13 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C259" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="B259" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C259" s="1" t="s">
-        <v>208</v>
       </c>
       <c r="D259" s="1">
         <v>4</v>
@@ -5183,13 +5180,13 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B260" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B260" s="1" t="s">
-        <v>208</v>
-      </c>
       <c r="C260" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D260" s="1">
         <v>2</v>
@@ -5197,13 +5194,13 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D261" s="1">
         <v>2</v>
@@ -5211,13 +5208,13 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D262" s="1">
         <v>2</v>
@@ -5225,13 +5222,13 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D263" s="1">
         <v>4</v>
@@ -5239,13 +5236,13 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B264" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C264" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="C264" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="D264" s="1">
         <v>4</v>
@@ -5253,13 +5250,13 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D265" s="1">
         <v>3</v>
@@ -5267,13 +5264,13 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D266" s="1">
         <v>3</v>
@@ -5281,13 +5278,13 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D267" s="1">
         <v>2</v>
@@ -5295,13 +5292,13 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D268" s="1">
         <v>1</v>
@@ -5309,13 +5306,13 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D269" s="1">
         <v>2</v>
@@ -5323,13 +5320,13 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D270" s="1">
         <v>4</v>
@@ -5337,13 +5334,13 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D271" s="1">
         <v>2</v>
@@ -5351,13 +5348,13 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D272" s="1">
         <v>3</v>
@@ -5365,13 +5362,13 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D273" s="1">
         <v>2</v>
@@ -5379,13 +5376,13 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D274" s="1">
         <v>3</v>
@@ -5393,13 +5390,13 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D275" s="1">
         <v>4</v>
@@ -5407,13 +5404,13 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D276" s="1">
         <v>3</v>
@@ -5421,13 +5418,13 @@
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D277" s="1">
         <v>2</v>
@@ -5435,13 +5432,13 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D278" s="1">
         <v>1</v>
@@ -5449,13 +5446,13 @@
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D279" s="1">
         <v>2</v>
@@ -5463,13 +5460,13 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D280" s="1">
         <v>2</v>
@@ -5477,13 +5474,13 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D281" s="1">
         <v>1</v>
@@ -5491,13 +5488,13 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D282" s="1">
         <v>2</v>
@@ -5505,13 +5502,13 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D283" s="1">
         <v>1</v>
@@ -5519,13 +5516,13 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D284" s="1">
         <v>2</v>
@@ -5533,13 +5530,13 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D285" s="1">
         <v>1</v>
@@ -5547,13 +5544,13 @@
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D286" s="1">
         <v>1</v>
@@ -5561,13 +5558,13 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D287" s="1">
         <v>2</v>
@@ -5575,13 +5572,13 @@
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D288" s="1">
         <v>3</v>
@@ -5589,13 +5586,13 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D289" s="1">
         <v>4</v>
@@ -5603,13 +5600,13 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D290" s="1">
         <v>2</v>
@@ -5617,13 +5614,13 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D291" s="1">
         <v>3</v>
@@ -5631,13 +5628,13 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D292" s="1">
         <v>3</v>
@@ -5645,13 +5642,13 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D293" s="1">
         <v>2</v>
@@ -5659,13 +5656,13 @@
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D294" s="1">
         <v>2</v>
@@ -5673,13 +5670,13 @@
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D295" s="1">
         <v>2</v>
@@ -5687,13 +5684,13 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D296" s="1">
         <v>2</v>
@@ -5701,13 +5698,13 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D297" s="1">
         <v>2</v>
@@ -5715,13 +5712,13 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D298" s="1">
         <v>2</v>
@@ -5729,13 +5726,13 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D299" s="1">
         <v>3</v>
@@ -5743,13 +5740,13 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D300" s="1">
         <v>2</v>
@@ -5757,13 +5754,13 @@
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D301" s="1">
         <v>2</v>
@@ -5771,13 +5768,13 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D302" s="1">
         <v>2</v>
@@ -5785,13 +5782,13 @@
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D303" s="1">
         <v>2</v>
@@ -5799,13 +5796,13 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D304" s="1">
         <v>2</v>
@@ -5813,13 +5810,13 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D305" s="1">
         <v>2</v>
@@ -5827,13 +5824,13 @@
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D306" s="1">
         <v>2</v>
@@ -5841,13 +5838,13 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D307" s="1">
         <v>2</v>
@@ -5855,13 +5852,13 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D308" s="1">
         <v>2</v>
@@ -5869,13 +5866,13 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D309" s="1">
         <v>3</v>
@@ -5883,13 +5880,13 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C310" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="B310" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C310" s="1" t="s">
-        <v>251</v>
       </c>
       <c r="D310" s="1">
         <v>2</v>
@@ -5897,13 +5894,13 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B311" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B311" s="1" t="s">
-        <v>251</v>
-      </c>
       <c r="C311" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D311" s="1">
         <v>3</v>
@@ -5911,13 +5908,13 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D312" s="1">
         <v>4</v>
@@ -5925,13 +5922,13 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D313" s="1">
         <v>2</v>
@@ -5939,13 +5936,13 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D314" s="1">
         <v>3</v>
@@ -5953,13 +5950,13 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D315" s="1">
         <v>2</v>
@@ -5967,13 +5964,13 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D316" s="1">
         <v>4</v>
@@ -5981,13 +5978,13 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D317" s="1">
         <v>2</v>
@@ -5995,13 +5992,13 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D318" s="1">
         <v>1</v>
@@ -6009,13 +6006,13 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D319" s="1">
         <v>2</v>
@@ -6023,13 +6020,13 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D320" s="1">
         <v>2</v>
@@ -6037,13 +6034,13 @@
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D321" s="1">
         <v>4</v>
@@ -6051,13 +6048,13 @@
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D322" s="1">
         <v>2</v>
@@ -6065,13 +6062,13 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D323" s="1">
         <v>2</v>
@@ -6079,13 +6076,13 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D324" s="1">
         <v>2</v>
@@ -6093,13 +6090,13 @@
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D325" s="1">
         <v>1</v>
@@ -6107,13 +6104,13 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D326" s="1">
         <v>1</v>
@@ -6121,13 +6118,13 @@
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D327" s="1">
         <v>2</v>
@@ -6135,13 +6132,13 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D328" s="1">
         <v>2</v>
@@ -6149,13 +6146,13 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D329" s="1">
         <v>2</v>
@@ -6163,13 +6160,13 @@
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D330" s="1">
         <v>2</v>
@@ -6177,13 +6174,13 @@
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D331" s="1">
         <v>2</v>
@@ -6191,13 +6188,13 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D332" s="1">
         <v>2</v>
@@ -6205,13 +6202,13 @@
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D333" s="1">
         <v>3</v>
@@ -6219,13 +6216,13 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D334" s="1">
         <v>3</v>
@@ -6233,13 +6230,13 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D335" s="1">
         <v>8</v>
@@ -6247,13 +6244,13 @@
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D336" s="1">
         <v>4</v>
@@ -6261,13 +6258,13 @@
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D337" s="1">
         <v>4</v>
@@ -6275,13 +6272,13 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D338" s="1">
         <v>3</v>
@@ -6289,13 +6286,13 @@
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D339" s="1">
         <v>1</v>
@@ -6303,13 +6300,13 @@
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D340" s="1">
         <v>2</v>
@@ -6317,13 +6314,13 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D341" s="1">
         <v>3</v>
@@ -6331,13 +6328,13 @@
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D342" s="1">
         <v>2</v>
@@ -6345,13 +6342,13 @@
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D343" s="1">
         <v>1</v>
@@ -6359,13 +6356,13 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D344" s="1">
         <v>3</v>
@@ -6373,13 +6370,13 @@
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D345" s="1">
         <v>4</v>
@@ -6387,13 +6384,13 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D346" s="1">
         <v>4</v>
@@ -6401,13 +6398,13 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D347" s="1">
         <v>4</v>
@@ -6415,13 +6412,13 @@
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D348" s="1">
         <v>3</v>
@@ -6429,13 +6426,13 @@
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D349" s="1">
         <v>2</v>
@@ -6443,13 +6440,13 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D350" s="1">
         <v>2</v>
@@ -6457,13 +6454,13 @@
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D351" s="1">
         <v>2</v>
@@ -6471,13 +6468,13 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D352" s="1">
         <v>2</v>
@@ -6485,13 +6482,13 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D353" s="1">
         <v>3</v>
@@ -6499,13 +6496,13 @@
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D354" s="1">
         <v>2</v>
@@ -6513,13 +6510,13 @@
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D355" s="1">
         <v>3</v>
@@ -6527,13 +6524,13 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D356" s="1">
         <v>5</v>
@@ -6541,13 +6538,13 @@
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D357" s="1">
         <v>2</v>
@@ -6555,13 +6552,13 @@
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D358" s="1">
         <v>2</v>
@@ -6569,13 +6566,13 @@
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D359" s="1">
         <v>2</v>
@@ -6583,13 +6580,13 @@
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D360" s="1">
         <v>4</v>
@@ -6597,13 +6594,13 @@
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D361" s="1">
         <v>2</v>
@@ -6611,13 +6608,13 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D362" s="1">
         <v>4</v>
@@ -6625,13 +6622,13 @@
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D363" s="1">
         <v>3</v>
@@ -6639,13 +6636,13 @@
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D364" s="1">
         <v>3</v>
@@ -6653,13 +6650,13 @@
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D365" s="1">
         <v>2</v>
@@ -6667,13 +6664,13 @@
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D366" s="1">
         <v>5</v>
@@ -6681,13 +6678,13 @@
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D367" s="1">
         <v>2</v>
@@ -6695,13 +6692,13 @@
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D368" s="1">
         <v>3</v>
@@ -6709,13 +6706,13 @@
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D369" s="1">
         <v>2</v>
@@ -6723,13 +6720,13 @@
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D370" s="1">
         <v>2</v>
@@ -6737,13 +6734,13 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D371" s="1">
         <v>2</v>
@@ -6751,13 +6748,13 @@
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D372" s="1">
         <v>2</v>
@@ -6765,13 +6762,13 @@
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D373" s="1">
         <v>2</v>
@@ -6779,13 +6776,13 @@
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D374" s="1">
         <v>2</v>
@@ -6793,13 +6790,13 @@
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D375" s="1">
         <v>2</v>
@@ -6807,13 +6804,13 @@
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D376" s="1">
         <v>3</v>
@@ -6821,13 +6818,13 @@
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D377" s="1">
         <v>2</v>
@@ -6835,13 +6832,13 @@
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" s="12" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D378" s="1">
         <v>5</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xanax\PycharmProjects\AlgorithmsCW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97421B69-ABE8-46EF-8E0C-ED0CCF117567}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE377F48-A8DD-42F1-8E63-52BAE4050384}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,9 +28,6 @@
     <t>To Station</t>
   </si>
   <si>
-    <t xml:space="preserve">Travel time Between stations </t>
-  </si>
-  <si>
     <t>Bakerloo</t>
   </si>
   <si>
@@ -899,6 +896,9 @@
   </si>
   <si>
     <t>From Station</t>
+  </si>
+  <si>
+    <t>Travel time Between stations</t>
   </si>
 </sst>
 </file>
@@ -1538,7 +1538,7 @@
   <dimension ref="A1:D378"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1557,24 +1557,24 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="D2" s="1">
         <v>2</v>
@@ -1582,13 +1582,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -1596,13 +1596,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="D4" s="1">
         <v>2</v>
@@ -1610,13 +1610,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="D5" s="1">
         <v>2</v>
@@ -1624,13 +1624,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="D6" s="1">
         <v>2</v>
@@ -1638,13 +1638,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="D7" s="1">
         <v>2</v>
@@ -1652,13 +1652,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="D8" s="1">
         <v>2</v>
@@ -1666,13 +1666,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="D9" s="1">
         <v>2</v>
@@ -1680,13 +1680,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="D10" s="1">
         <v>2</v>
@@ -1694,13 +1694,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="D11" s="1">
         <v>2</v>
@@ -1708,13 +1708,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="D12" s="1">
         <v>2</v>
@@ -1722,13 +1722,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D13" s="1">
         <v>2</v>
@@ -1736,13 +1736,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="D14" s="1">
         <v>2</v>
@@ -1750,13 +1750,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="D15" s="1">
         <v>2</v>
@@ -1764,13 +1764,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="D16" s="1">
         <v>2</v>
@@ -1778,13 +1778,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="D17" s="1">
         <v>2</v>
@@ -1792,13 +1792,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="D18" s="1">
         <v>2</v>
@@ -1806,13 +1806,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="D19" s="1">
         <v>2</v>
@@ -1820,13 +1820,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="D20" s="1">
         <v>2</v>
@@ -1834,13 +1834,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="D21" s="1">
         <v>2</v>
@@ -1848,13 +1848,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="D22" s="1">
         <v>2</v>
@@ -1862,13 +1862,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="D23" s="1">
         <v>2</v>
@@ -1876,13 +1876,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="D24" s="1">
         <v>2</v>
@@ -1890,13 +1890,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="D25" s="1">
         <v>2</v>
@@ -1904,13 +1904,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="D26" s="1">
         <v>3</v>
@@ -1918,13 +1918,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="D27" s="1">
         <v>3</v>
@@ -1932,13 +1932,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="D28" s="1">
         <v>2</v>
@@ -1946,13 +1946,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="D29" s="1">
         <v>3</v>
@@ -1960,13 +1960,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="D30" s="1">
         <v>2</v>
@@ -1974,13 +1974,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="D31" s="1">
         <v>3</v>
@@ -1988,13 +1988,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="D32" s="1">
         <v>2</v>
@@ -2002,13 +2002,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="D33" s="1">
         <v>2</v>
@@ -2016,13 +2016,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D34" s="1">
         <v>4</v>
@@ -2030,13 +2030,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="D35" s="1">
         <v>3</v>
@@ -2044,13 +2044,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="D36" s="1">
         <v>2</v>
@@ -2058,13 +2058,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="D37" s="1">
         <v>5</v>
@@ -2072,13 +2072,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="D38" s="1">
         <v>2</v>
@@ -2086,13 +2086,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="D39" s="1">
         <v>2</v>
@@ -2100,13 +2100,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="D40" s="1">
         <v>2</v>
@@ -2114,13 +2114,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="D41" s="1">
         <v>3</v>
@@ -2128,13 +2128,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="D42" s="1">
         <v>2</v>
@@ -2142,13 +2142,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="D43" s="1">
         <v>2</v>
@@ -2156,13 +2156,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D44" s="1">
         <v>2</v>
@@ -2170,13 +2170,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D45" s="1">
         <v>2</v>
@@ -2184,13 +2184,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="D46" s="1">
         <v>3</v>
@@ -2198,13 +2198,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="D47" s="1">
         <v>4</v>
@@ -2212,13 +2212,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="D48" s="1">
         <v>2</v>
@@ -2226,13 +2226,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="D49" s="1">
         <v>3</v>
@@ -2240,13 +2240,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="D50" s="1">
         <v>2</v>
@@ -2254,13 +2254,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="D51" s="1">
         <v>2</v>
@@ -2268,13 +2268,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="D52" s="1">
         <v>2</v>
@@ -2282,13 +2282,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="D53" s="1">
         <v>1</v>
@@ -2296,13 +2296,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="D54" s="1">
         <v>2</v>
@@ -2310,13 +2310,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D55" s="1">
         <v>1</v>
@@ -2324,13 +2324,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D56" s="1">
         <v>2</v>
@@ -2338,13 +2338,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="D57" s="1">
         <v>2</v>
@@ -2352,13 +2352,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="D58" s="1">
         <v>3</v>
@@ -2366,13 +2366,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="D59" s="1">
         <v>2</v>
@@ -2380,13 +2380,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="D60" s="1">
         <v>2</v>
@@ -2394,13 +2394,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="D61" s="1">
         <v>1</v>
@@ -2408,13 +2408,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="D62" s="1">
         <v>2</v>
@@ -2422,13 +2422,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="D63" s="1">
         <v>3</v>
@@ -2436,13 +2436,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B64" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="D64" s="1">
         <v>3</v>
@@ -2450,13 +2450,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="D65" s="1">
         <v>2</v>
@@ -2464,13 +2464,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="D66" s="1">
         <v>3</v>
@@ -2478,13 +2478,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D67" s="1">
         <v>2</v>
@@ -2492,13 +2492,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="D68" s="1">
         <v>3</v>
@@ -2506,13 +2506,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D69" s="1">
         <v>3</v>
@@ -2520,13 +2520,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B70" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="D70" s="1">
         <v>2</v>
@@ -2534,13 +2534,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="D71" s="1">
         <v>2</v>
@@ -2548,13 +2548,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="D72" s="1">
         <v>3</v>
@@ -2562,13 +2562,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B73" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="D73" s="1">
         <v>2</v>
@@ -2576,13 +2576,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B74" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="D74" s="1">
         <v>2</v>
@@ -2590,13 +2590,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="C75" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D75" s="1">
         <v>3</v>
@@ -2604,13 +2604,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D76" s="1">
         <v>2</v>
@@ -2618,13 +2618,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D77" s="1">
         <v>2</v>
@@ -2632,13 +2632,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D78" s="1">
         <v>2</v>
@@ -2646,13 +2646,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="D79" s="1">
         <v>3</v>
@@ -2660,13 +2660,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B80" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="D80" s="1">
         <v>3</v>
@@ -2674,13 +2674,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B81" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="D81" s="1">
         <v>2</v>
@@ -2688,13 +2688,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B82" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="D82" s="1">
         <v>2</v>
@@ -2702,13 +2702,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B83" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="D83" s="1">
         <v>2</v>
@@ -2716,13 +2716,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B84" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="D84" s="1">
         <v>2</v>
@@ -2730,13 +2730,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D85" s="1">
         <v>1</v>
@@ -2744,13 +2744,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D86" s="1">
         <v>2</v>
@@ -2758,13 +2758,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B87" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="D87" s="1">
         <v>1</v>
@@ -2772,13 +2772,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B88" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="D88" s="1">
         <v>2</v>
@@ -2786,13 +2786,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B89" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="D89" s="1">
         <v>2</v>
@@ -2800,13 +2800,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B90" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="D90" s="1">
         <v>1</v>
@@ -2814,13 +2814,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B91" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="D91" s="1">
         <v>2</v>
@@ -2828,13 +2828,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B92" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="D92" s="1">
         <v>2</v>
@@ -2842,13 +2842,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D93" s="1">
         <v>3</v>
@@ -2856,13 +2856,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D94" s="1">
         <v>2</v>
@@ -2870,13 +2870,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B95" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="D95" s="1">
         <v>2</v>
@@ -2884,13 +2884,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B96" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C96" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="D96" s="1">
         <v>1</v>
@@ -2898,13 +2898,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B97" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="D97" s="1">
         <v>4</v>
@@ -2912,13 +2912,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B98" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="D98" s="1">
         <v>2</v>
@@ -2926,13 +2926,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B99" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="D99" s="1">
         <v>2</v>
@@ -2940,13 +2940,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D100" s="1">
         <v>2</v>
@@ -2954,13 +2954,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="D101" s="1">
         <v>3</v>
@@ -2968,13 +2968,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D102" s="1">
         <v>2</v>
@@ -2982,13 +2982,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B103" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="D103" s="1">
         <v>2</v>
@@ -2996,13 +2996,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B104" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C104" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="D104" s="1">
         <v>2</v>
@@ -3010,13 +3010,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B105" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="D105" s="1">
         <v>2</v>
@@ -3024,13 +3024,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B106" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="D106" s="1">
         <v>2</v>
@@ -3038,13 +3038,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B107" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="D107" s="1">
         <v>2</v>
@@ -3052,13 +3052,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B108" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C108" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="D108" s="1">
         <v>1</v>
@@ -3066,13 +3066,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B109" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="D109" s="1">
         <v>2</v>
@@ -3080,13 +3080,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="C110" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="D110" s="1">
         <v>2</v>
@@ -3094,13 +3094,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B111" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C111" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="D111" s="1">
         <v>2</v>
@@ -3108,13 +3108,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B112" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C112" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="D112" s="1">
         <v>2</v>
@@ -3122,13 +3122,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B113" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="D113" s="1">
         <v>3</v>
@@ -3136,13 +3136,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B114" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C114" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="D114" s="1">
         <v>2</v>
@@ -3150,13 +3150,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B115" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C115" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="D115" s="1">
         <v>3</v>
@@ -3164,13 +3164,13 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B116" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C116" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="D116" s="1">
         <v>2</v>
@@ -3178,13 +3178,13 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B117" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C117" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="D117" s="1">
         <v>3</v>
@@ -3192,13 +3192,13 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B118" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C118" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="D118" s="1">
         <v>4</v>
@@ -3206,13 +3206,13 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B119" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C119" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="D119" s="1">
         <v>2</v>
@@ -3220,13 +3220,13 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B120" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C120" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="D120" s="1">
         <v>2</v>
@@ -3234,13 +3234,13 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B121" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C121" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="D121" s="1">
         <v>2</v>
@@ -3248,13 +3248,13 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B122" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C122" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="D122" s="1">
         <v>2</v>
@@ -3262,13 +3262,13 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B123" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C123" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="D123" s="1">
         <v>2</v>
@@ -3276,13 +3276,13 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D124" s="1">
         <v>2</v>
@@ -3290,13 +3290,13 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D125" s="1">
         <v>2</v>
@@ -3304,13 +3304,13 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B126" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C126" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="D126" s="1">
         <v>3</v>
@@ -3318,13 +3318,13 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B127" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C127" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="D127" s="1">
         <v>2</v>
@@ -3332,13 +3332,13 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D128" s="1">
         <v>3</v>
@@ -3346,13 +3346,13 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D129" s="1">
         <v>2</v>
@@ -3360,13 +3360,13 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D130" s="1">
         <v>1</v>
@@ -3374,13 +3374,13 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D131" s="1">
         <v>2</v>
@@ -3388,13 +3388,13 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D132" s="1">
         <v>2</v>
@@ -3402,13 +3402,13 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D133" s="1">
         <v>1</v>
@@ -3416,13 +3416,13 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D134" s="1">
         <v>2</v>
@@ -3430,13 +3430,13 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D135" s="1">
         <v>1</v>
@@ -3444,13 +3444,13 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D136" s="1">
         <v>2</v>
@@ -3458,13 +3458,13 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D137" s="1">
         <v>2</v>
@@ -3472,13 +3472,13 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D138" s="1">
         <v>2</v>
@@ -3486,13 +3486,13 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D139" s="1">
         <v>2</v>
@@ -3500,13 +3500,13 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D140" s="1">
         <v>3</v>
@@ -3514,13 +3514,13 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D141" s="1">
         <v>2</v>
@@ -3528,13 +3528,13 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B142" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C142" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="D142" s="1">
         <v>3</v>
@@ -3542,13 +3542,13 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D143" s="1">
         <v>5</v>
@@ -3556,13 +3556,13 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D144" s="1">
         <v>2</v>
@@ -3570,13 +3570,13 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D145" s="1">
         <v>2</v>
@@ -3584,13 +3584,13 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D146" s="1">
         <v>2</v>
@@ -3598,13 +3598,13 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B147" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C147" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="D147" s="1">
         <v>3</v>
@@ -3612,13 +3612,13 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D148" s="1">
         <v>2</v>
@@ -3626,13 +3626,13 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B149" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C149" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="D149" s="1">
         <v>2</v>
@@ -3640,13 +3640,13 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B150" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C150" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="D150" s="1">
         <v>2</v>
@@ -3654,13 +3654,13 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B151" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C151" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="D151" s="1">
         <v>3</v>
@@ -3668,13 +3668,13 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B152" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C152" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="D152" s="1">
         <v>3</v>
@@ -3682,13 +3682,13 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B153" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C153" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="D153" s="1">
         <v>2</v>
@@ -3696,13 +3696,13 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B154" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C154" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="D154" s="1">
         <v>2</v>
@@ -3710,13 +3710,13 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B155" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C155" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="D155" s="1">
         <v>4</v>
@@ -3724,13 +3724,13 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D156" s="1">
         <v>2</v>
@@ -3738,13 +3738,13 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B157" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C157" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="D157" s="1">
         <v>2</v>
@@ -3752,13 +3752,13 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B158" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C158" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="D158" s="1">
         <v>3</v>
@@ -3766,13 +3766,13 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B159" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C159" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="D159" s="1">
         <v>2</v>
@@ -3780,13 +3780,13 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B160" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C160" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="D160" s="1">
         <v>2</v>
@@ -3794,13 +3794,13 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B161" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C161" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="D161" s="1">
         <v>1</v>
@@ -3808,13 +3808,13 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B162" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C162" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="D162" s="1">
         <v>3</v>
@@ -3822,13 +3822,13 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B163" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C163" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="D163" s="1">
         <v>2</v>
@@ -3836,13 +3836,13 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B164" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C164" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="D164" s="1">
         <v>4</v>
@@ -3850,13 +3850,13 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D165" s="1">
         <v>2</v>
@@ -3864,13 +3864,13 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B166" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C166" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="D166" s="1">
         <v>2</v>
@@ -3878,13 +3878,13 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B167" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C167" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>149</v>
       </c>
       <c r="D167" s="1">
         <v>2</v>
@@ -3892,13 +3892,13 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D168" s="1">
         <v>5</v>
@@ -3906,13 +3906,13 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B169" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C169" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="D169" s="1">
         <v>4</v>
@@ -3920,13 +3920,13 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B170" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C170" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="D170" s="1">
         <v>2</v>
@@ -3934,13 +3934,13 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B171" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C171" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="D171" s="1">
         <v>2</v>
@@ -3948,13 +3948,13 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B172" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C172" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="D172" s="1">
         <v>2</v>
@@ -3962,13 +3962,13 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B173" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C173" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="D173" s="1">
         <v>2</v>
@@ -3976,13 +3976,13 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B174" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C174" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="D174" s="1">
         <v>2</v>
@@ -3990,13 +3990,13 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D175" s="1">
         <v>2</v>
@@ -4004,13 +4004,13 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D176" s="1">
         <v>2</v>
@@ -4018,13 +4018,13 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B177" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C177" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="D177" s="1">
         <v>3</v>
@@ -4032,13 +4032,13 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B178" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C178" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="D178" s="1">
         <v>2</v>
@@ -4046,13 +4046,13 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D179" s="1">
         <v>3</v>
@@ -4060,13 +4060,13 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D180" s="1">
         <v>2</v>
@@ -4074,13 +4074,13 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B181" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C181" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="D181" s="1">
         <v>2</v>
@@ -4088,13 +4088,13 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B182" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C182" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="D182" s="1">
         <v>1</v>
@@ -4102,13 +4102,13 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B183" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C183" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="D183" s="1">
         <v>4</v>
@@ -4116,13 +4116,13 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B184" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C184" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="D184" s="1">
         <v>2</v>
@@ -4130,13 +4130,13 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B185" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C185" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="D185" s="1">
         <v>2</v>
@@ -4144,13 +4144,13 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D186" s="1">
         <v>2</v>
@@ -4158,13 +4158,13 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D187" s="1">
         <v>3</v>
@@ -4172,13 +4172,13 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D188" s="1">
         <v>3</v>
@@ -4186,13 +4186,13 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C189" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C189" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="D189" s="1">
         <v>2</v>
@@ -4200,13 +4200,13 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B190" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B190" s="1" t="s">
+      <c r="C190" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="C190" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="D190" s="1">
         <v>2</v>
@@ -4214,13 +4214,13 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B191" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C191" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="C191" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="D191" s="1">
         <v>2</v>
@@ -4228,13 +4228,13 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B192" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C192" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="C192" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="D192" s="1">
         <v>2</v>
@@ -4242,13 +4242,13 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B193" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C193" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="C193" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="D193" s="1">
         <v>2</v>
@@ -4256,13 +4256,13 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B194" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C194" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="C194" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="D194" s="1">
         <v>2</v>
@@ -4270,13 +4270,13 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B195" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C195" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="C195" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="D195" s="1">
         <v>1</v>
@@ -4284,13 +4284,13 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D196" s="1">
         <v>2</v>
@@ -4298,13 +4298,13 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B197" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B197" s="1" t="s">
+      <c r="C197" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="C197" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="D197" s="1">
         <v>4</v>
@@ -4312,13 +4312,13 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B198" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C198" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="C198" s="1" t="s">
-        <v>161</v>
       </c>
       <c r="D198" s="1">
         <v>3</v>
@@ -4326,13 +4326,13 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B199" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C199" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="C199" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="D199" s="1">
         <v>2</v>
@@ -4340,13 +4340,13 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B200" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C200" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="C200" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="D200" s="1">
         <v>3</v>
@@ -4354,13 +4354,13 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B201" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C201" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="C201" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="D201" s="1">
         <v>4</v>
@@ -4368,13 +4368,13 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B202" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C202" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="C202" s="1" t="s">
-        <v>165</v>
       </c>
       <c r="D202" s="1">
         <v>2</v>
@@ -4382,13 +4382,13 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B203" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C203" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="C203" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="D203" s="1">
         <v>2</v>
@@ -4396,13 +4396,13 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B204" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C204" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="C204" s="1" t="s">
-        <v>167</v>
       </c>
       <c r="D204" s="1">
         <v>2</v>
@@ -4410,13 +4410,13 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B205" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C205" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="C205" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="D205" s="1">
         <v>2</v>
@@ -4424,13 +4424,13 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B206" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C206" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="C206" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="D206" s="1">
         <v>1</v>
@@ -4438,13 +4438,13 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B207" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C207" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="C207" s="1" t="s">
-        <v>170</v>
       </c>
       <c r="D207" s="1">
         <v>2</v>
@@ -4452,13 +4452,13 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B208" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C208" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="C208" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="D208" s="1">
         <v>2</v>
@@ -4466,13 +4466,13 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D209" s="1">
         <v>3</v>
@@ -4480,13 +4480,13 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D210" s="1">
         <v>2</v>
@@ -4494,13 +4494,13 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D211" s="1">
         <v>2</v>
@@ -4508,13 +4508,13 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D212" s="1">
         <v>2</v>
@@ -4522,13 +4522,13 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D213" s="1">
         <v>2</v>
@@ -4536,13 +4536,13 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D214" s="1">
         <v>2</v>
@@ -4550,13 +4550,13 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B215" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C215" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="C215" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="D215" s="1">
         <v>2</v>
@@ -4564,13 +4564,13 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B216" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C216" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="C216" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="D216" s="1">
         <v>2</v>
@@ -4578,13 +4578,13 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B217" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C217" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="C217" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="D217" s="1">
         <v>2</v>
@@ -4592,13 +4592,13 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B218" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C218" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="C218" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="D218" s="1">
         <v>3</v>
@@ -4606,13 +4606,13 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B219" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C219" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="C219" s="1" t="s">
-        <v>178</v>
       </c>
       <c r="D219" s="1">
         <v>3</v>
@@ -4620,13 +4620,13 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B220" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C220" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="C220" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="D220" s="1">
         <v>3</v>
@@ -4634,13 +4634,13 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D221" s="1">
         <v>3</v>
@@ -4648,13 +4648,13 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D222" s="1">
         <v>2</v>
@@ -4662,13 +4662,13 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B223" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B223" s="1" t="s">
+      <c r="C223" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="C223" s="1" t="s">
-        <v>182</v>
       </c>
       <c r="D223" s="1">
         <v>4</v>
@@ -4676,13 +4676,13 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D224" s="1">
         <v>9</v>
@@ -4690,13 +4690,13 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D225" s="1">
         <v>4</v>
@@ -4704,13 +4704,13 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B226" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C226" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="C226" s="1" t="s">
-        <v>185</v>
       </c>
       <c r="D226" s="1">
         <v>4</v>
@@ -4718,13 +4718,13 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B227" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C227" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="C227" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="D227" s="1">
         <v>5</v>
@@ -4732,13 +4732,13 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B228" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C228" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="C228" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="D228" s="1">
         <v>4</v>
@@ -4746,13 +4746,13 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D229" s="1">
         <v>4</v>
@@ -4760,13 +4760,13 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B230" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C230" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="C230" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="D230" s="1">
         <v>4</v>
@@ -4774,13 +4774,13 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B231" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C231" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="C231" s="1" t="s">
-        <v>191</v>
       </c>
       <c r="D231" s="1">
         <v>2</v>
@@ -4788,13 +4788,13 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B232" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C232" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="C232" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="D232" s="1">
         <v>2</v>
@@ -4802,13 +4802,13 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B233" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C233" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="C233" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="D233" s="1">
         <v>2</v>
@@ -4816,13 +4816,13 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B234" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C234" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="C234" s="1" t="s">
-        <v>194</v>
       </c>
       <c r="D234" s="1">
         <v>2</v>
@@ -4830,13 +4830,13 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B235" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C235" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="C235" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="D235" s="1">
         <v>2</v>
@@ -4844,13 +4844,13 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B236" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C236" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="C236" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="D236" s="1">
         <v>3</v>
@@ -4858,13 +4858,13 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B237" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C237" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="C237" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="D237" s="1">
         <v>2</v>
@@ -4872,13 +4872,13 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B238" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C238" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="C238" s="1" t="s">
-        <v>198</v>
       </c>
       <c r="D238" s="1">
         <v>3</v>
@@ -4886,13 +4886,13 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B239" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C239" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="C239" s="1" t="s">
-        <v>199</v>
       </c>
       <c r="D239" s="1">
         <v>2</v>
@@ -4900,13 +4900,13 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B240" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C240" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="C240" s="1" t="s">
-        <v>200</v>
       </c>
       <c r="D240" s="1">
         <v>3</v>
@@ -4914,13 +4914,13 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B241" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C241" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="C241" s="1" t="s">
-        <v>201</v>
       </c>
       <c r="D241" s="1">
         <v>3</v>
@@ -4928,13 +4928,13 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D242" s="1">
         <v>3</v>
@@ -4942,13 +4942,13 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D243" s="1">
         <v>14</v>
@@ -4956,13 +4956,13 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D244" s="1">
         <v>16</v>
@@ -4970,13 +4970,13 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D245" s="1">
         <v>9</v>
@@ -4984,13 +4984,13 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D246" s="1">
         <v>3</v>
@@ -4998,13 +4998,13 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B247" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C247" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="C247" s="1" t="s">
-        <v>203</v>
       </c>
       <c r="D247" s="1">
         <v>3</v>
@@ -5012,13 +5012,13 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D248" s="1">
         <v>3</v>
@@ -5026,13 +5026,13 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D249" s="1">
         <v>7</v>
@@ -5040,13 +5040,13 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D250" s="1">
         <v>5</v>
@@ -5054,13 +5054,13 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D251" s="1">
         <v>2</v>
@@ -5068,13 +5068,13 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D252" s="1">
         <v>2</v>
@@ -5082,13 +5082,13 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D253" s="1">
         <v>2</v>
@@ -5096,13 +5096,13 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D254" s="1">
         <v>2</v>
@@ -5110,13 +5110,13 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D255" s="1">
         <v>4</v>
@@ -5124,13 +5124,13 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D256" s="1">
         <v>2</v>
@@ -5138,13 +5138,13 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D257" s="1">
         <v>2</v>
@@ -5152,13 +5152,13 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D258" s="1">
         <v>3</v>
@@ -5166,13 +5166,13 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B259" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B259" s="1" t="s">
+      <c r="C259" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="C259" s="1" t="s">
-        <v>206</v>
       </c>
       <c r="D259" s="1">
         <v>4</v>
@@ -5180,13 +5180,13 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B260" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C260" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="C260" s="1" t="s">
-        <v>207</v>
       </c>
       <c r="D260" s="1">
         <v>2</v>
@@ -5194,13 +5194,13 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B261" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C261" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="C261" s="1" t="s">
-        <v>208</v>
       </c>
       <c r="D261" s="1">
         <v>2</v>
@@ -5208,13 +5208,13 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B262" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C262" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="C262" s="1" t="s">
-        <v>209</v>
       </c>
       <c r="D262" s="1">
         <v>2</v>
@@ -5222,13 +5222,13 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D263" s="1">
         <v>4</v>
@@ -5236,13 +5236,13 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D264" s="1">
         <v>4</v>
@@ -5250,13 +5250,13 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B265" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C265" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="C265" s="1" t="s">
-        <v>212</v>
       </c>
       <c r="D265" s="1">
         <v>3</v>
@@ -5264,13 +5264,13 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B266" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C266" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="C266" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="D266" s="1">
         <v>3</v>
@@ -5278,13 +5278,13 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B267" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C267" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="C267" s="1" t="s">
-        <v>214</v>
       </c>
       <c r="D267" s="1">
         <v>2</v>
@@ -5292,13 +5292,13 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B268" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C268" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="C268" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="D268" s="1">
         <v>1</v>
@@ -5306,13 +5306,13 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B269" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C269" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="C269" s="1" t="s">
-        <v>216</v>
       </c>
       <c r="D269" s="1">
         <v>2</v>
@@ -5320,13 +5320,13 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B270" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C270" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="C270" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="D270" s="1">
         <v>4</v>
@@ -5334,13 +5334,13 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B271" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C271" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="C271" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="D271" s="1">
         <v>2</v>
@@ -5348,13 +5348,13 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B272" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C272" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="C272" s="1" t="s">
-        <v>220</v>
       </c>
       <c r="D272" s="1">
         <v>3</v>
@@ -5362,13 +5362,13 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B273" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C273" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="C273" s="1" t="s">
-        <v>221</v>
       </c>
       <c r="D273" s="1">
         <v>2</v>
@@ -5376,13 +5376,13 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B274" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C274" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="C274" s="1" t="s">
-        <v>222</v>
       </c>
       <c r="D274" s="1">
         <v>3</v>
@@ -5390,13 +5390,13 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B275" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C275" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="C275" s="1" t="s">
-        <v>223</v>
       </c>
       <c r="D275" s="1">
         <v>4</v>
@@ -5404,13 +5404,13 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B276" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C276" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="C276" s="1" t="s">
-        <v>224</v>
       </c>
       <c r="D276" s="1">
         <v>3</v>
@@ -5418,13 +5418,13 @@
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B277" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C277" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="C277" s="1" t="s">
-        <v>225</v>
       </c>
       <c r="D277" s="1">
         <v>2</v>
@@ -5432,13 +5432,13 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D278" s="1">
         <v>1</v>
@@ -5446,13 +5446,13 @@
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D279" s="1">
         <v>2</v>
@@ -5460,13 +5460,13 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B280" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C280" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="C280" s="1" t="s">
-        <v>227</v>
       </c>
       <c r="D280" s="1">
         <v>2</v>
@@ -5474,13 +5474,13 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D281" s="1">
         <v>1</v>
@@ -5488,13 +5488,13 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B282" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C282" s="1" t="s">
         <v>228</v>
-      </c>
-      <c r="C282" s="1" t="s">
-        <v>229</v>
       </c>
       <c r="D282" s="1">
         <v>2</v>
@@ -5502,13 +5502,13 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D283" s="1">
         <v>1</v>
@@ -5516,13 +5516,13 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D284" s="1">
         <v>2</v>
@@ -5530,13 +5530,13 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B285" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C285" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="C285" s="1" t="s">
-        <v>231</v>
       </c>
       <c r="D285" s="1">
         <v>1</v>
@@ -5544,13 +5544,13 @@
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D286" s="1">
         <v>1</v>
@@ -5558,13 +5558,13 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B287" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C287" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C287" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="D287" s="1">
         <v>2</v>
@@ -5572,13 +5572,13 @@
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D288" s="1">
         <v>3</v>
@@ -5586,13 +5586,13 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D289" s="1">
         <v>4</v>
@@ -5600,13 +5600,13 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D290" s="1">
         <v>2</v>
@@ -5614,13 +5614,13 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D291" s="1">
         <v>3</v>
@@ -5628,13 +5628,13 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B292" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C292" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="C292" s="1" t="s">
-        <v>234</v>
       </c>
       <c r="D292" s="1">
         <v>3</v>
@@ -5642,13 +5642,13 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D293" s="1">
         <v>2</v>
@@ -5656,13 +5656,13 @@
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D294" s="1">
         <v>2</v>
@@ -5670,13 +5670,13 @@
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D295" s="1">
         <v>2</v>
@@ -5684,13 +5684,13 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D296" s="1">
         <v>2</v>
@@ -5698,13 +5698,13 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D297" s="1">
         <v>2</v>
@@ -5712,13 +5712,13 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D298" s="1">
         <v>2</v>
@@ -5726,13 +5726,13 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D299" s="1">
         <v>3</v>
@@ -5740,13 +5740,13 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B300" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C300" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="C300" s="1" t="s">
-        <v>237</v>
       </c>
       <c r="D300" s="1">
         <v>2</v>
@@ -5754,13 +5754,13 @@
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B301" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C301" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="C301" s="1" t="s">
-        <v>238</v>
       </c>
       <c r="D301" s="1">
         <v>2</v>
@@ -5768,13 +5768,13 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B302" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C302" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="C302" s="1" t="s">
-        <v>239</v>
       </c>
       <c r="D302" s="1">
         <v>2</v>
@@ -5782,13 +5782,13 @@
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B303" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C303" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="C303" s="1" t="s">
-        <v>240</v>
       </c>
       <c r="D303" s="1">
         <v>2</v>
@@ -5796,13 +5796,13 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B304" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C304" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="C304" s="1" t="s">
-        <v>241</v>
       </c>
       <c r="D304" s="1">
         <v>2</v>
@@ -5810,13 +5810,13 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B305" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C305" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="C305" s="1" t="s">
-        <v>242</v>
       </c>
       <c r="D305" s="1">
         <v>2</v>
@@ -5824,13 +5824,13 @@
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B306" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C306" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="C306" s="1" t="s">
-        <v>243</v>
       </c>
       <c r="D306" s="1">
         <v>2</v>
@@ -5838,13 +5838,13 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B307" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C307" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="C307" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="D307" s="1">
         <v>2</v>
@@ -5852,13 +5852,13 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B308" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C308" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="C308" s="1" t="s">
-        <v>245</v>
       </c>
       <c r="D308" s="1">
         <v>2</v>
@@ -5866,13 +5866,13 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B309" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C309" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="C309" s="1" t="s">
-        <v>246</v>
       </c>
       <c r="D309" s="1">
         <v>3</v>
@@ -5880,13 +5880,13 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="B310" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B310" s="1" t="s">
+      <c r="C310" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="C310" s="1" t="s">
-        <v>249</v>
       </c>
       <c r="D310" s="1">
         <v>2</v>
@@ -5894,13 +5894,13 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B311" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C311" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="C311" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="D311" s="1">
         <v>3</v>
@@ -5908,13 +5908,13 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B312" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C312" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="C312" s="1" t="s">
-        <v>251</v>
       </c>
       <c r="D312" s="1">
         <v>4</v>
@@ -5922,13 +5922,13 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B313" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C313" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="C313" s="1" t="s">
-        <v>252</v>
       </c>
       <c r="D313" s="1">
         <v>2</v>
@@ -5936,13 +5936,13 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B314" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C314" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="C314" s="1" t="s">
-        <v>253</v>
       </c>
       <c r="D314" s="1">
         <v>3</v>
@@ -5950,13 +5950,13 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B315" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C315" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="C315" s="1" t="s">
-        <v>254</v>
       </c>
       <c r="D315" s="1">
         <v>2</v>
@@ -5964,13 +5964,13 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B316" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C316" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="C316" s="1" t="s">
-        <v>255</v>
       </c>
       <c r="D316" s="1">
         <v>4</v>
@@ -5978,13 +5978,13 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B317" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C317" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="C317" s="1" t="s">
-        <v>256</v>
       </c>
       <c r="D317" s="1">
         <v>2</v>
@@ -5992,13 +5992,13 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B318" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C318" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="C318" s="1" t="s">
-        <v>257</v>
       </c>
       <c r="D318" s="1">
         <v>1</v>
@@ -6006,13 +6006,13 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B319" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C319" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="C319" s="1" t="s">
-        <v>258</v>
       </c>
       <c r="D319" s="1">
         <v>2</v>
@@ -6020,13 +6020,13 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B320" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C320" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="C320" s="1" t="s">
-        <v>259</v>
       </c>
       <c r="D320" s="1">
         <v>2</v>
@@ -6034,13 +6034,13 @@
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D321" s="1">
         <v>4</v>
@@ -6048,13 +6048,13 @@
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D322" s="1">
         <v>2</v>
@@ -6062,13 +6062,13 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B323" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C323" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="C323" s="1" t="s">
-        <v>261</v>
       </c>
       <c r="D323" s="1">
         <v>2</v>
@@ -6076,13 +6076,13 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B324" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C324" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="C324" s="1" t="s">
-        <v>262</v>
       </c>
       <c r="D324" s="1">
         <v>2</v>
@@ -6090,13 +6090,13 @@
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D325" s="1">
         <v>1</v>
@@ -6104,13 +6104,13 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D326" s="1">
         <v>1</v>
@@ -6118,13 +6118,13 @@
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D327" s="1">
         <v>2</v>
@@ -6132,13 +6132,13 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D328" s="1">
         <v>2</v>
@@ -6146,13 +6146,13 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B329" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C329" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="C329" s="1" t="s">
-        <v>264</v>
       </c>
       <c r="D329" s="1">
         <v>2</v>
@@ -6160,13 +6160,13 @@
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D330" s="1">
         <v>2</v>
@@ -6174,13 +6174,13 @@
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D331" s="1">
         <v>2</v>
@@ -6188,13 +6188,13 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D332" s="1">
         <v>2</v>
@@ -6202,13 +6202,13 @@
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D333" s="1">
         <v>3</v>
@@ -6216,13 +6216,13 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B334" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C334" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="C334" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="D334" s="1">
         <v>3</v>
@@ -6230,13 +6230,13 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D335" s="1">
         <v>8</v>
@@ -6244,13 +6244,13 @@
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D336" s="1">
         <v>4</v>
@@ -6258,13 +6258,13 @@
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D337" s="1">
         <v>4</v>
@@ -6272,13 +6272,13 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D338" s="1">
         <v>3</v>
@@ -6286,13 +6286,13 @@
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B339" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C339" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="C339" s="1" t="s">
-        <v>266</v>
       </c>
       <c r="D339" s="1">
         <v>1</v>
@@ -6300,13 +6300,13 @@
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B340" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C340" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="C340" s="1" t="s">
-        <v>267</v>
       </c>
       <c r="D340" s="1">
         <v>2</v>
@@ -6314,13 +6314,13 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B341" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C341" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="C341" s="1" t="s">
-        <v>268</v>
       </c>
       <c r="D341" s="1">
         <v>3</v>
@@ -6328,13 +6328,13 @@
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B342" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C342" s="1" t="s">
         <v>268</v>
-      </c>
-      <c r="C342" s="1" t="s">
-        <v>269</v>
       </c>
       <c r="D342" s="1">
         <v>2</v>
@@ -6342,13 +6342,13 @@
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B343" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C343" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="C343" s="1" t="s">
-        <v>270</v>
       </c>
       <c r="D343" s="1">
         <v>1</v>
@@ -6356,13 +6356,13 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B344" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C344" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="C344" s="1" t="s">
-        <v>271</v>
       </c>
       <c r="D344" s="1">
         <v>3</v>
@@ -6370,13 +6370,13 @@
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B345" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C345" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="C345" s="1" t="s">
-        <v>272</v>
       </c>
       <c r="D345" s="1">
         <v>4</v>
@@ -6384,13 +6384,13 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B346" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C346" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="C346" s="1" t="s">
-        <v>273</v>
       </c>
       <c r="D346" s="1">
         <v>4</v>
@@ -6398,13 +6398,13 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B347" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C347" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="C347" s="1" t="s">
-        <v>274</v>
       </c>
       <c r="D347" s="1">
         <v>4</v>
@@ -6412,13 +6412,13 @@
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D348" s="1">
         <v>3</v>
@@ -6426,13 +6426,13 @@
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B349" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C349" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="C349" s="1" t="s">
-        <v>149</v>
       </c>
       <c r="D349" s="1">
         <v>2</v>
@@ -6440,13 +6440,13 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D350" s="1">
         <v>2</v>
@@ -6454,13 +6454,13 @@
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B351" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C351" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="C351" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="D351" s="1">
         <v>2</v>
@@ -6468,13 +6468,13 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B352" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C352" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="C352" s="1" t="s">
-        <v>278</v>
       </c>
       <c r="D352" s="1">
         <v>2</v>
@@ -6482,13 +6482,13 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B353" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C353" s="1" t="s">
         <v>278</v>
-      </c>
-      <c r="C353" s="1" t="s">
-        <v>279</v>
       </c>
       <c r="D353" s="1">
         <v>3</v>
@@ -6496,13 +6496,13 @@
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B354" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C354" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="C354" s="1" t="s">
-        <v>280</v>
       </c>
       <c r="D354" s="1">
         <v>2</v>
@@ -6510,13 +6510,13 @@
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B355" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C355" s="1" t="s">
         <v>280</v>
-      </c>
-      <c r="C355" s="1" t="s">
-        <v>281</v>
       </c>
       <c r="D355" s="1">
         <v>3</v>
@@ -6524,13 +6524,13 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D356" s="1">
         <v>5</v>
@@ -6538,13 +6538,13 @@
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D357" s="1">
         <v>2</v>
@@ -6552,13 +6552,13 @@
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D358" s="1">
         <v>2</v>
@@ -6566,13 +6566,13 @@
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D359" s="1">
         <v>2</v>
@@ -6580,13 +6580,13 @@
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D360" s="1">
         <v>4</v>
@@ -6594,13 +6594,13 @@
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D361" s="1">
         <v>2</v>
@@ -6608,13 +6608,13 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D362" s="1">
         <v>4</v>
@@ -6622,13 +6622,13 @@
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B363" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C363" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="C363" s="1" t="s">
-        <v>283</v>
       </c>
       <c r="D363" s="1">
         <v>3</v>
@@ -6636,13 +6636,13 @@
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B364" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C364" s="1" t="s">
         <v>283</v>
-      </c>
-      <c r="C364" s="1" t="s">
-        <v>284</v>
       </c>
       <c r="D364" s="1">
         <v>3</v>
@@ -6650,13 +6650,13 @@
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B365" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C365" s="1" t="s">
         <v>284</v>
-      </c>
-      <c r="C365" s="1" t="s">
-        <v>285</v>
       </c>
       <c r="D365" s="1">
         <v>2</v>
@@ -6664,13 +6664,13 @@
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B366" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C366" s="1" t="s">
         <v>285</v>
-      </c>
-      <c r="C366" s="1" t="s">
-        <v>286</v>
       </c>
       <c r="D366" s="1">
         <v>5</v>
@@ -6678,13 +6678,13 @@
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B367" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C367" s="1" t="s">
         <v>286</v>
-      </c>
-      <c r="C367" s="1" t="s">
-        <v>287</v>
       </c>
       <c r="D367" s="1">
         <v>2</v>
@@ -6692,13 +6692,13 @@
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D368" s="1">
         <v>3</v>
@@ -6706,13 +6706,13 @@
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D369" s="1">
         <v>2</v>
@@ -6720,13 +6720,13 @@
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B370" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C370" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="C370" s="1" t="s">
-        <v>228</v>
       </c>
       <c r="D370" s="1">
         <v>2</v>
@@ -6734,13 +6734,13 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D371" s="1">
         <v>2</v>
@@ -6748,13 +6748,13 @@
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D372" s="1">
         <v>2</v>
@@ -6762,13 +6762,13 @@
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D373" s="1">
         <v>2</v>
@@ -6776,13 +6776,13 @@
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D374" s="1">
         <v>2</v>
@@ -6790,13 +6790,13 @@
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B375" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C375" s="1" t="s">
         <v>288</v>
-      </c>
-      <c r="C375" s="1" t="s">
-        <v>289</v>
       </c>
       <c r="D375" s="1">
         <v>2</v>
@@ -6804,13 +6804,13 @@
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D376" s="1">
         <v>3</v>
@@ -6818,13 +6818,13 @@
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D377" s="1">
         <v>2</v>
@@ -6832,13 +6832,13 @@
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" s="12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D378" s="1">
         <v>5</v>
